--- a/Ocean temp.xlsx
+++ b/Ocean temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\District system - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E1ACB1-85FD-4D4B-920B-C30523C8CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B03882F-1D42-4522-AC47-B223D9613682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8239C3B1-2F72-4CB3-87DA-56EA84E344E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t xml:space="preserve">
 Year</t>
+  </si>
+  <si>
+    <t>CombinedDate</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B15C4F-78B6-4B55-A6B4-4611A9AA5557}">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,8 +492,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -507,8 +513,12 @@
         <f>IF(D2="NaN",AVERAGE(IF(ISTEXT(D1)=TRUE,D3,D1),IF(ISBLANK(D3)=TRUE,D1,D3)),D2)*9/5+32</f>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>C2&amp;B2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -525,8 +535,12 @@
         <f t="shared" ref="E3:E66" si="0">IF(D3="NaN",AVERAGE(IF(ISTEXT(D2)=TRUE,D4,D2),IF(ISBLANK(D4)=TRUE,D2,D4)),D3)*9/5+32</f>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">C3&amp;B3</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2021</v>
       </c>
@@ -543,8 +557,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
@@ -561,8 +579,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2021</v>
       </c>
@@ -579,8 +601,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2021</v>
       </c>
@@ -597,8 +623,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
@@ -615,8 +645,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
@@ -633,8 +667,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
@@ -651,8 +689,12 @@
         <f t="shared" si="0"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -669,8 +711,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -687,8 +733,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -705,8 +755,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -723,8 +777,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -741,8 +799,12 @@
         <f t="shared" si="0"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -759,8 +821,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
@@ -777,8 +843,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
@@ -795,8 +865,12 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
@@ -813,8 +887,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
@@ -831,8 +909,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
@@ -849,8 +931,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
@@ -867,8 +953,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
@@ -885,8 +975,12 @@
         <f t="shared" si="0"/>
         <v>57.56</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
@@ -903,8 +997,12 @@
         <f t="shared" si="0"/>
         <v>57.379999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
@@ -921,8 +1019,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
@@ -939,8 +1041,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
@@ -957,8 +1063,12 @@
         <f t="shared" si="0"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
@@ -975,8 +1085,12 @@
         <f t="shared" si="0"/>
         <v>53.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
@@ -993,8 +1107,12 @@
         <f t="shared" si="0"/>
         <v>53.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1011,8 +1129,12 @@
         <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
@@ -1029,8 +1151,12 @@
         <f t="shared" si="0"/>
         <v>52.879999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
@@ -1047,8 +1173,12 @@
         <f t="shared" si="0"/>
         <v>52.879999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
@@ -1065,8 +1195,12 @@
         <f t="shared" si="0"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
@@ -1083,8 +1217,12 @@
         <f t="shared" si="0"/>
         <v>53.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
@@ -1101,8 +1239,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
@@ -1119,8 +1261,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
@@ -1137,8 +1283,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
@@ -1155,8 +1305,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
@@ -1173,8 +1327,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
@@ -1191,8 +1349,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
@@ -1209,8 +1371,12 @@
         <f t="shared" si="0"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
@@ -1227,8 +1393,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
@@ -1245,8 +1415,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
@@ -1263,8 +1437,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
@@ -1281,8 +1459,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
@@ -1299,8 +1481,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2021</v>
       </c>
@@ -1317,8 +1503,12 @@
         <f t="shared" si="0"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2021</v>
       </c>
@@ -1335,8 +1525,12 @@
         <f t="shared" si="0"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
@@ -1353,8 +1547,12 @@
         <f t="shared" si="0"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2021</v>
       </c>
@@ -1371,8 +1569,12 @@
         <f t="shared" si="0"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2021</v>
       </c>
@@ -1389,8 +1591,12 @@
         <f t="shared" si="0"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2021</v>
       </c>
@@ -1407,8 +1613,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
@@ -1425,8 +1635,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2021</v>
       </c>
@@ -1443,8 +1657,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2021</v>
       </c>
@@ -1461,8 +1679,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2021</v>
       </c>
@@ -1479,8 +1701,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
@@ -1497,8 +1723,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
@@ -1515,8 +1745,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2021</v>
       </c>
@@ -1533,8 +1767,12 @@
         <f t="shared" si="0"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2021</v>
       </c>
@@ -1551,8 +1789,12 @@
         <f t="shared" si="0"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2021</v>
       </c>
@@ -1569,8 +1811,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2021</v>
       </c>
@@ -1587,8 +1833,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2021</v>
       </c>
@@ -1605,8 +1855,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2021</v>
       </c>
@@ -1623,8 +1877,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2021</v>
       </c>
@@ -1641,8 +1899,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>2021</v>
       </c>
@@ -1659,8 +1921,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2021</v>
       </c>
@@ -1674,11 +1940,15 @@
         <v>13.4</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E130" si="1">IF(D67="NaN",AVERAGE(IF(ISTEXT(D66)=TRUE,D68,D66),IF(ISBLANK(D68)=TRUE,D66,D68)),D67)*9/5+32</f>
+        <f t="shared" ref="E67:E130" si="2">IF(D67="NaN",AVERAGE(IF(ISTEXT(D66)=TRUE,D68,D66),IF(ISBLANK(D68)=TRUE,D66,D68)),D67)*9/5+32</f>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">C67&amp;B67</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>2021</v>
       </c>
@@ -1692,11 +1962,15 @@
         <v>14.5</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>2021</v>
       </c>
@@ -1710,11 +1984,15 @@
         <v>14.5</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2021</v>
       </c>
@@ -1728,11 +2006,15 @@
         <v>13.2</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>2021</v>
       </c>
@@ -1746,11 +2028,15 @@
         <v>13.3</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>2021</v>
       </c>
@@ -1764,11 +2050,15 @@
         <v>13.4</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2021</v>
       </c>
@@ -1782,11 +2072,15 @@
         <v>12.6</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2021</v>
       </c>
@@ -1800,11 +2094,15 @@
         <v>12.6</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>2021</v>
       </c>
@@ -1818,11 +2116,15 @@
         <v>12.8</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>2021</v>
       </c>
@@ -1836,11 +2138,15 @@
         <v>12.8</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2021</v>
       </c>
@@ -1854,11 +2160,15 @@
         <v>12.3</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.14</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2021</v>
       </c>
@@ -1872,11 +2182,15 @@
         <v>12.5</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2021</v>
       </c>
@@ -1890,11 +2204,15 @@
         <v>12.5</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>2021</v>
       </c>
@@ -1908,11 +2226,15 @@
         <v>12.4</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>2021</v>
       </c>
@@ -1926,11 +2248,15 @@
         <v>12.6</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>2021</v>
       </c>
@@ -1944,11 +2270,15 @@
         <v>12.8</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>2021</v>
       </c>
@@ -1962,11 +2292,15 @@
         <v>12.9</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2021</v>
       </c>
@@ -1980,11 +2314,15 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2021</v>
       </c>
@@ -1998,11 +2336,15 @@
         <v>12.5</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>2021</v>
       </c>
@@ -2016,11 +2358,15 @@
         <v>12.4</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>2021</v>
       </c>
@@ -2034,11 +2380,15 @@
         <v>12.5</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>2021</v>
       </c>
@@ -2052,11 +2402,15 @@
         <v>12.6</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>2021</v>
       </c>
@@ -2070,11 +2424,15 @@
         <v>13.1</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>2021</v>
       </c>
@@ -2088,11 +2446,15 @@
         <v>13.2</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2021</v>
       </c>
@@ -2106,11 +2468,15 @@
         <v>13.1</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>2021</v>
       </c>
@@ -2124,11 +2490,15 @@
         <v>13.5</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2021</v>
       </c>
@@ -2142,11 +2512,15 @@
         <v>13.5</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2021</v>
       </c>
@@ -2160,11 +2534,15 @@
         <v>13.4</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>2021</v>
       </c>
@@ -2178,11 +2556,15 @@
         <v>13.3</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>2021</v>
       </c>
@@ -2196,11 +2578,15 @@
         <v>13.3</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2021</v>
       </c>
@@ -2214,11 +2600,15 @@
         <v>15.8</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>2021</v>
       </c>
@@ -2232,11 +2622,15 @@
         <v>15.9</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>2021</v>
       </c>
@@ -2250,11 +2644,15 @@
         <v>15.6</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>2021</v>
       </c>
@@ -2268,11 +2666,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>2021</v>
       </c>
@@ -2286,11 +2688,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>2021</v>
       </c>
@@ -2304,11 +2710,15 @@
         <v>15.3</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>2021</v>
       </c>
@@ -2322,11 +2732,15 @@
         <v>15.5</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2021</v>
       </c>
@@ -2340,11 +2754,15 @@
         <v>15.3</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>2021</v>
       </c>
@@ -2358,11 +2776,15 @@
         <v>14.6</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>2021</v>
       </c>
@@ -2376,11 +2798,15 @@
         <v>14.5</v>
       </c>
       <c r="E106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2021</v>
       </c>
@@ -2394,11 +2820,15 @@
         <v>14</v>
       </c>
       <c r="E107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>2021</v>
       </c>
@@ -2412,11 +2842,15 @@
         <v>13.4</v>
       </c>
       <c r="E108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>2021</v>
       </c>
@@ -2430,11 +2864,15 @@
         <v>13.6</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2021</v>
       </c>
@@ -2448,11 +2886,15 @@
         <v>13.8</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>2021</v>
       </c>
@@ -2466,11 +2908,15 @@
         <v>13.9</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>2021</v>
       </c>
@@ -2484,11 +2930,15 @@
         <v>13.8</v>
       </c>
       <c r="E112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2021</v>
       </c>
@@ -2502,11 +2952,15 @@
         <v>15.7</v>
       </c>
       <c r="E113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2021</v>
       </c>
@@ -2520,11 +2974,15 @@
         <v>15.7</v>
       </c>
       <c r="E114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2021</v>
       </c>
@@ -2538,11 +2996,15 @@
         <v>14.7</v>
       </c>
       <c r="E115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.459999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>2021</v>
       </c>
@@ -2556,11 +3018,15 @@
         <v>15</v>
       </c>
       <c r="E116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>2021</v>
       </c>
@@ -2574,11 +3040,15 @@
         <v>14.4</v>
       </c>
       <c r="E117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.92</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>2021</v>
       </c>
@@ -2592,11 +3062,15 @@
         <v>4</v>
       </c>
       <c r="E118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.57</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>2021</v>
       </c>
@@ -2610,11 +3084,15 @@
         <v>12.9</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>2021</v>
       </c>
@@ -2628,11 +3106,15 @@
         <v>15.2</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.36</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>2021</v>
       </c>
@@ -2646,11 +3128,15 @@
         <v>15.2</v>
       </c>
       <c r="E121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.36</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>2021</v>
       </c>
@@ -2664,11 +3150,15 @@
         <v>15.5</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>2021</v>
       </c>
@@ -2682,11 +3172,15 @@
         <v>16.2</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>2021</v>
       </c>
@@ -2700,11 +3194,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>2021</v>
       </c>
@@ -2718,11 +3216,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>2021</v>
       </c>
@@ -2736,11 +3238,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>2021</v>
       </c>
@@ -2754,11 +3260,15 @@
         <v>15.8</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>2021</v>
       </c>
@@ -2772,11 +3282,15 @@
         <v>15.8</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>2021</v>
       </c>
@@ -2790,11 +3304,15 @@
         <v>15.3</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>2021</v>
       </c>
@@ -2808,11 +3326,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>2021</v>
       </c>
@@ -2826,11 +3348,15 @@
         <v>16.2</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" ref="E131:E194" si="2">IF(D131="NaN",AVERAGE(IF(ISTEXT(D130)=TRUE,D132,D130),IF(ISBLANK(D132)=TRUE,D130,D132)),D131)*9/5+32</f>
+        <f t="shared" ref="E131:E194" si="4">IF(D131="NaN",AVERAGE(IF(ISTEXT(D130)=TRUE,D132,D130),IF(ISBLANK(D132)=TRUE,D130,D132)),D131)*9/5+32</f>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F194" si="5">C131&amp;B131</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>2021</v>
       </c>
@@ -2844,11 +3370,15 @@
         <v>16.3</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>2021</v>
       </c>
@@ -2862,11 +3392,15 @@
         <v>16.2</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>2021</v>
       </c>
@@ -2880,11 +3414,15 @@
         <v>16</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>2021</v>
       </c>
@@ -2898,11 +3436,15 @@
         <v>15.8</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>2021</v>
       </c>
@@ -2916,11 +3458,15 @@
         <v>15.9</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>2021</v>
       </c>
@@ -2934,11 +3480,15 @@
         <v>15.9</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>2021</v>
       </c>
@@ -2952,11 +3502,15 @@
         <v>16</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>2021</v>
       </c>
@@ -2970,11 +3524,15 @@
         <v>17.2</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>2021</v>
       </c>
@@ -2988,11 +3546,15 @@
         <v>17.3</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>2021</v>
       </c>
@@ -3006,11 +3568,15 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.12</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>2021</v>
       </c>
@@ -3024,11 +3590,15 @@
         <v>17.5</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>2021</v>
       </c>
@@ -3042,11 +3612,15 @@
         <v>14.6</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>2021</v>
       </c>
@@ -3060,11 +3634,15 @@
         <v>13.7</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>2021</v>
       </c>
@@ -3078,11 +3656,15 @@
         <v>14</v>
       </c>
       <c r="E145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>2021</v>
       </c>
@@ -3096,11 +3678,15 @@
         <v>13.8</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>2021</v>
       </c>
@@ -3114,11 +3700,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>2021</v>
       </c>
@@ -3132,11 +3722,15 @@
         <v>16.7</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>2021</v>
       </c>
@@ -3150,11 +3744,15 @@
         <v>16.3</v>
       </c>
       <c r="E149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>2021</v>
       </c>
@@ -3168,11 +3766,15 @@
         <v>15.9</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>2021</v>
       </c>
@@ -3186,11 +3788,15 @@
         <v>4</v>
       </c>
       <c r="E151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.07</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>2021</v>
       </c>
@@ -3204,11 +3810,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>2021</v>
       </c>
@@ -3222,11 +3832,15 @@
         <v>4</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>2021</v>
       </c>
@@ -3240,11 +3854,15 @@
         <v>4</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>2021</v>
       </c>
@@ -3258,11 +3876,15 @@
         <v>15.4</v>
       </c>
       <c r="E155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>2021</v>
       </c>
@@ -3276,11 +3898,15 @@
         <v>15.9</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>2021</v>
       </c>
@@ -3294,11 +3920,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="str">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>2021</v>
       </c>
@@ -3312,11 +3942,15 @@
         <v>16.3</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="str">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>2021</v>
       </c>
@@ -3330,11 +3964,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="str">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>2021</v>
       </c>
@@ -3348,11 +3986,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="str">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>2021</v>
       </c>
@@ -3366,11 +4008,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="str">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>2021</v>
       </c>
@@ -3384,11 +4030,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="str">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>2021</v>
       </c>
@@ -3402,11 +4052,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="str">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>2021</v>
       </c>
@@ -3420,11 +4074,15 @@
         <v>18.7</v>
       </c>
       <c r="E164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.66</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="str">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>2021</v>
       </c>
@@ -3438,11 +4096,15 @@
         <v>18.8</v>
       </c>
       <c r="E165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.84</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="str">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>2021</v>
       </c>
@@ -3456,11 +4118,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="str">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>2021</v>
       </c>
@@ -3474,11 +4140,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.92</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="str">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>2021</v>
       </c>
@@ -3492,11 +4162,15 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.28</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="str">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>2021</v>
       </c>
@@ -3510,11 +4184,15 @@
         <v>20</v>
       </c>
       <c r="E169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="str">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>2021</v>
       </c>
@@ -3528,11 +4206,15 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68.180000000000007</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>2021</v>
       </c>
@@ -3546,11 +4228,15 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.28</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>2021</v>
       </c>
@@ -3564,11 +4250,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>2021</v>
       </c>
@@ -3582,11 +4272,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>2021</v>
       </c>
@@ -3600,11 +4294,15 @@
         <v>17.2</v>
       </c>
       <c r="E174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>2021</v>
       </c>
@@ -3618,11 +4316,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.78</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f t="shared" si="5"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>2021</v>
       </c>
@@ -3636,11 +4338,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>2021</v>
       </c>
@@ -3654,11 +4360,15 @@
         <v>16.7</v>
       </c>
       <c r="E177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>2021</v>
       </c>
@@ -3672,11 +4382,15 @@
         <v>16.7</v>
       </c>
       <c r="E178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>2021</v>
       </c>
@@ -3690,11 +4404,15 @@
         <v>18.3</v>
       </c>
       <c r="E179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.94</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>2021</v>
       </c>
@@ -3708,11 +4426,15 @@
         <v>19</v>
       </c>
       <c r="E180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>2021</v>
       </c>
@@ -3726,11 +4448,15 @@
         <v>19</v>
       </c>
       <c r="E181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>2021</v>
       </c>
@@ -3744,11 +4470,15 @@
         <v>18.5</v>
       </c>
       <c r="E182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>2021</v>
       </c>
@@ -3762,11 +4492,15 @@
         <v>18.5</v>
       </c>
       <c r="E183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>2021</v>
       </c>
@@ -3780,11 +4514,15 @@
         <v>18.8</v>
       </c>
       <c r="E184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.84</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>2021</v>
       </c>
@@ -3798,11 +4536,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>2021</v>
       </c>
@@ -3816,11 +4558,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.48</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>2021</v>
       </c>
@@ -3834,11 +4580,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.48</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>2021</v>
       </c>
@@ -3852,11 +4602,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>2021</v>
       </c>
@@ -3870,11 +4624,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>2021</v>
       </c>
@@ -3888,11 +4646,15 @@
         <v>19.3</v>
       </c>
       <c r="E190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>2021</v>
       </c>
@@ -3906,11 +4668,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.92</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>2021</v>
       </c>
@@ -3924,11 +4690,15 @@
         <v>19.3</v>
       </c>
       <c r="E192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="str">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>2021</v>
       </c>
@@ -3942,11 +4712,15 @@
         <v>19.3</v>
       </c>
       <c r="E193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="str">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>2021</v>
       </c>
@@ -3960,11 +4734,15 @@
         <v>19.2</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.56</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="str">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>2021</v>
       </c>
@@ -3978,11 +4756,15 @@
         <v>4</v>
       </c>
       <c r="E195" s="3">
-        <f t="shared" ref="E195:E258" si="3">IF(D195="NaN",AVERAGE(IF(ISTEXT(D194)=TRUE,D196,D194),IF(ISBLANK(D196)=TRUE,D194,D196)),D195)*9/5+32</f>
+        <f t="shared" ref="E195:E258" si="6">IF(D195="NaN",AVERAGE(IF(ISTEXT(D194)=TRUE,D196,D194),IF(ISBLANK(D196)=TRUE,D194,D196)),D195)*9/5+32</f>
         <v>66.83</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F258" si="7">C195&amp;B195</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>2021</v>
       </c>
@@ -3996,11 +4778,15 @@
         <v>19.5</v>
       </c>
       <c r="E196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="str">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>2021</v>
       </c>
@@ -4014,11 +4800,15 @@
         <v>20</v>
       </c>
       <c r="E197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="str">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>2021</v>
       </c>
@@ -4032,11 +4822,15 @@
         <v>19.2</v>
       </c>
       <c r="E198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66.56</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="str">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>2021</v>
       </c>
@@ -4050,11 +4844,15 @@
         <v>17.8</v>
       </c>
       <c r="E199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="str">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>2021</v>
       </c>
@@ -4068,11 +4866,15 @@
         <v>17.8</v>
       </c>
       <c r="E200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="str">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>2021</v>
       </c>
@@ -4086,11 +4888,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="str">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>2021</v>
       </c>
@@ -4104,11 +4910,15 @@
         <v>18</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="str">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>2021</v>
       </c>
@@ -4122,11 +4932,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="str">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>2021</v>
       </c>
@@ -4140,11 +4954,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="str">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>2021</v>
       </c>
@@ -4158,11 +4976,15 @@
         <v>18</v>
       </c>
       <c r="E205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="str">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>2021</v>
       </c>
@@ -4176,11 +4998,15 @@
         <v>18</v>
       </c>
       <c r="E206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="str">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>2021</v>
       </c>
@@ -4194,11 +5020,15 @@
         <v>16.8</v>
       </c>
       <c r="E207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.24</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="str">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>2021</v>
       </c>
@@ -4212,11 +5042,15 @@
         <v>16.7</v>
       </c>
       <c r="E208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>2021</v>
       </c>
@@ -4230,11 +5064,15 @@
         <v>17.5</v>
       </c>
       <c r="E209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>2021</v>
       </c>
@@ -4248,11 +5086,15 @@
         <v>17.5</v>
       </c>
       <c r="E210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>2021</v>
       </c>
@@ -4266,11 +5108,15 @@
         <v>17.5</v>
       </c>
       <c r="E211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>2021</v>
       </c>
@@ -4284,11 +5130,15 @@
         <v>4</v>
       </c>
       <c r="E212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="str">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>2021</v>
       </c>
@@ -4302,11 +5152,15 @@
         <v>4</v>
       </c>
       <c r="E213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="str">
+        <f t="shared" si="7"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>2021</v>
       </c>
@@ -4320,11 +5174,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>2021</v>
       </c>
@@ -4338,11 +5196,15 @@
         <v>17.8</v>
       </c>
       <c r="E215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="str">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>2021</v>
       </c>
@@ -4356,11 +5218,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E216" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="str">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>2021</v>
       </c>
@@ -4374,11 +5240,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E217" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="str">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>2021</v>
       </c>
@@ -4392,11 +5262,15 @@
         <v>17.3</v>
       </c>
       <c r="E218" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="str">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>2021</v>
       </c>
@@ -4410,11 +5284,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E219" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="str">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>2021</v>
       </c>
@@ -4428,11 +5306,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E220" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="str">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>2021</v>
       </c>
@@ -4446,11 +5328,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E221" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="str">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>2021</v>
       </c>
@@ -4464,11 +5350,15 @@
         <v>17.2</v>
       </c>
       <c r="E222" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="str">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>2021</v>
       </c>
@@ -4482,11 +5372,15 @@
         <v>17.2</v>
       </c>
       <c r="E223" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="str">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>2021</v>
       </c>
@@ -4500,11 +5394,15 @@
         <v>17.3</v>
       </c>
       <c r="E224" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="str">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>2021</v>
       </c>
@@ -4518,11 +5416,15 @@
         <v>17.2</v>
       </c>
       <c r="E225" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="str">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>2021</v>
       </c>
@@ -4536,11 +5438,15 @@
         <v>17.3</v>
       </c>
       <c r="E226" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="str">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>2021</v>
       </c>
@@ -4554,11 +5460,15 @@
         <v>17.3</v>
       </c>
       <c r="E227" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="str">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>2021</v>
       </c>
@@ -4572,11 +5482,15 @@
         <v>17.3</v>
       </c>
       <c r="E228" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="str">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>2021</v>
       </c>
@@ -4590,11 +5504,15 @@
         <v>18</v>
       </c>
       <c r="E229" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="str">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>2021</v>
       </c>
@@ -4608,11 +5526,15 @@
         <v>18</v>
       </c>
       <c r="E230" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="str">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>2021</v>
       </c>
@@ -4626,11 +5548,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E231" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="str">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>2021</v>
       </c>
@@ -4644,11 +5570,15 @@
         <v>18</v>
       </c>
       <c r="E232" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="str">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>2021</v>
       </c>
@@ -4662,11 +5592,15 @@
         <v>18</v>
       </c>
       <c r="E233" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="str">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>2021</v>
       </c>
@@ -4680,11 +5614,15 @@
         <v>18</v>
       </c>
       <c r="E234" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="str">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>2021</v>
       </c>
@@ -4698,11 +5636,15 @@
         <v>18</v>
       </c>
       <c r="E235" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="str">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>2021</v>
       </c>
@@ -4716,11 +5658,15 @@
         <v>18</v>
       </c>
       <c r="E236" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="str">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>2021</v>
       </c>
@@ -4734,11 +5680,15 @@
         <v>18</v>
       </c>
       <c r="E237" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="str">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>2021</v>
       </c>
@@ -4752,11 +5702,15 @@
         <v>17.3</v>
       </c>
       <c r="E238" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="str">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>2021</v>
       </c>
@@ -4770,11 +5724,15 @@
         <v>17.3</v>
       </c>
       <c r="E239" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="str">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>2021</v>
       </c>
@@ -4788,11 +5746,15 @@
         <v>17.3</v>
       </c>
       <c r="E240" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="str">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>2021</v>
       </c>
@@ -4806,11 +5768,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E241" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="str">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>2021</v>
       </c>
@@ -4824,11 +5790,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E242" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="str">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>2021</v>
       </c>
@@ -4842,11 +5812,15 @@
         <v>16.3</v>
       </c>
       <c r="E243" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="str">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>2021</v>
       </c>
@@ -4860,11 +5834,15 @@
         <v>16.2</v>
       </c>
       <c r="E244" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="str">
+        <f t="shared" si="7"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>2021</v>
       </c>
@@ -4878,11 +5856,15 @@
         <v>17.5</v>
       </c>
       <c r="E245" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>2021</v>
       </c>
@@ -4896,11 +5878,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E246" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="str">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>2021</v>
       </c>
@@ -4914,11 +5900,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E247" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="str">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>2021</v>
       </c>
@@ -4932,11 +5922,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E248" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="str">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>2021</v>
       </c>
@@ -4950,11 +5944,15 @@
         <v>16.8</v>
       </c>
       <c r="E249" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.24</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="str">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>2021</v>
       </c>
@@ -4968,11 +5966,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E250" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.78</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="str">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>2021</v>
       </c>
@@ -4986,11 +5988,15 @@
         <v>18.2</v>
       </c>
       <c r="E251" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.759999999999991</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="str">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>2021</v>
       </c>
@@ -5004,11 +6010,15 @@
         <v>17.7</v>
       </c>
       <c r="E252" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="str">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>2021</v>
       </c>
@@ -5022,11 +6032,15 @@
         <v>17.5</v>
       </c>
       <c r="E253" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="str">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>2021</v>
       </c>
@@ -5040,11 +6054,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E254" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="str">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>2021</v>
       </c>
@@ -5058,11 +6076,15 @@
         <v>17.8</v>
       </c>
       <c r="E255" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="str">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>2021</v>
       </c>
@@ -5076,11 +6098,15 @@
         <v>17.7</v>
       </c>
       <c r="E256" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="str">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>2021</v>
       </c>
@@ -5094,11 +6120,15 @@
         <v>17.2</v>
       </c>
       <c r="E257" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="str">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>2021</v>
       </c>
@@ -5112,11 +6142,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="str">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>2021</v>
       </c>
@@ -5130,11 +6164,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E259" s="3">
-        <f t="shared" ref="E259:E322" si="4">IF(D259="NaN",AVERAGE(IF(ISTEXT(D258)=TRUE,D260,D258),IF(ISBLANK(D260)=TRUE,D258,D260)),D259)*9/5+32</f>
+        <f t="shared" ref="E259:E322" si="8">IF(D259="NaN",AVERAGE(IF(ISTEXT(D258)=TRUE,D260,D258),IF(ISBLANK(D260)=TRUE,D258,D260)),D259)*9/5+32</f>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="str">
+        <f t="shared" ref="F259:F322" si="9">C259&amp;B259</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>2021</v>
       </c>
@@ -5148,11 +6186,15 @@
         <v>15.7</v>
       </c>
       <c r="E260" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="str">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>2021</v>
       </c>
@@ -5166,11 +6208,15 @@
         <v>15.5</v>
       </c>
       <c r="E261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="str">
+        <f t="shared" si="9"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>2021</v>
       </c>
@@ -5184,11 +6230,15 @@
         <v>15.6</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="str">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>2021</v>
       </c>
@@ -5202,11 +6252,15 @@
         <v>15.5</v>
       </c>
       <c r="E263" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="str">
+        <f t="shared" si="9"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>2021</v>
       </c>
@@ -5220,11 +6274,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E264" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="str">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>2021</v>
       </c>
@@ -5238,11 +6296,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E265" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="str">
+        <f t="shared" si="9"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>2021</v>
       </c>
@@ -5256,11 +6318,15 @@
         <v>17.5</v>
       </c>
       <c r="E266" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="str">
+        <f t="shared" si="9"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>2021</v>
       </c>
@@ -5274,11 +6340,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E267" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="str">
+        <f t="shared" si="9"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>2021</v>
       </c>
@@ -5292,11 +6362,15 @@
         <v>17.3</v>
       </c>
       <c r="E268" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="str">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>2021</v>
       </c>
@@ -5310,11 +6384,15 @@
         <v>17.2</v>
       </c>
       <c r="E269" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="str">
+        <f t="shared" si="9"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>2021</v>
       </c>
@@ -5328,11 +6406,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E270" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="str">
+        <f t="shared" si="9"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>2021</v>
       </c>
@@ -5346,11 +6428,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E271" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="str">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>2021</v>
       </c>
@@ -5364,11 +6450,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E272" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="str">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>2021</v>
       </c>
@@ -5382,11 +6472,15 @@
         <v>4</v>
       </c>
       <c r="E273" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.07</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="str">
+        <f t="shared" si="9"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>2021</v>
       </c>
@@ -5400,11 +6494,15 @@
         <v>16.2</v>
       </c>
       <c r="E274" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="str">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>2021</v>
       </c>
@@ -5418,11 +6516,15 @@
         <v>17.3</v>
       </c>
       <c r="E275" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="str">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>2021</v>
       </c>
@@ -5436,11 +6538,15 @@
         <v>17.5</v>
       </c>
       <c r="E276" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="str">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>2021</v>
       </c>
@@ -5454,11 +6560,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E277" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="str">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>2021</v>
       </c>
@@ -5472,11 +6582,15 @@
         <v>18</v>
       </c>
       <c r="E278" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="str">
+        <f t="shared" si="9"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>2021</v>
       </c>
@@ -5490,11 +6604,15 @@
         <v>18.3</v>
       </c>
       <c r="E279" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.94</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="str">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>2021</v>
       </c>
@@ -5508,11 +6626,15 @@
         <v>17.8</v>
       </c>
       <c r="E280" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="str">
+        <f t="shared" si="9"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>2021</v>
       </c>
@@ -5526,11 +6648,15 @@
         <v>17.7</v>
       </c>
       <c r="E281" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="str">
+        <f t="shared" si="9"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>2021</v>
       </c>
@@ -5544,11 +6670,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E282" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="str">
+        <f t="shared" si="9"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>2021</v>
       </c>
@@ -5562,11 +6692,15 @@
         <v>17.2</v>
       </c>
       <c r="E283" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="str">
+        <f t="shared" si="9"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>2021</v>
       </c>
@@ -5580,11 +6714,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E284" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>2021</v>
       </c>
@@ -5598,11 +6736,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E285" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="str">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>2021</v>
       </c>
@@ -5616,11 +6758,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E286" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="str">
+        <f t="shared" si="9"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>2021</v>
       </c>
@@ -5634,11 +6780,15 @@
         <v>14.6</v>
       </c>
       <c r="E287" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="str">
+        <f t="shared" si="9"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>2021</v>
       </c>
@@ -5652,11 +6802,15 @@
         <v>14.5</v>
       </c>
       <c r="E288" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="str">
+        <f t="shared" si="9"/>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>2021</v>
       </c>
@@ -5670,11 +6824,15 @@
         <v>14.7</v>
       </c>
       <c r="E289" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.459999999999994</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="str">
+        <f t="shared" si="9"/>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>2021</v>
       </c>
@@ -5688,11 +6846,15 @@
         <v>15.1</v>
       </c>
       <c r="E290" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.18</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="str">
+        <f t="shared" si="9"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>2021</v>
       </c>
@@ -5706,11 +6868,15 @@
         <v>15.1</v>
       </c>
       <c r="E291" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.18</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="str">
+        <f t="shared" si="9"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>2021</v>
       </c>
@@ -5724,11 +6890,15 @@
         <v>15.7</v>
       </c>
       <c r="E292" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="str">
+        <f t="shared" si="9"/>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>2021</v>
       </c>
@@ -5742,11 +6912,15 @@
         <v>15.6</v>
       </c>
       <c r="E293" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="str">
+        <f t="shared" si="9"/>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>2021</v>
       </c>
@@ -5760,11 +6934,15 @@
         <v>15.6</v>
       </c>
       <c r="E294" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="str">
+        <f t="shared" si="9"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>2021</v>
       </c>
@@ -5778,11 +6956,15 @@
         <v>15.7</v>
       </c>
       <c r="E295" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="str">
+        <f t="shared" si="9"/>
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>2021</v>
       </c>
@@ -5796,11 +6978,15 @@
         <v>16</v>
       </c>
       <c r="E296" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="str">
+        <f t="shared" si="9"/>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>2021</v>
       </c>
@@ -5814,11 +7000,15 @@
         <v>16.3</v>
       </c>
       <c r="E297" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="str">
+        <f t="shared" si="9"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>2021</v>
       </c>
@@ -5832,11 +7022,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E298" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="str">
+        <f t="shared" si="9"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>2021</v>
       </c>
@@ -5850,11 +7044,15 @@
         <v>16.7</v>
       </c>
       <c r="E299" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="str">
+        <f t="shared" si="9"/>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>2021</v>
       </c>
@@ -5868,11 +7066,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E300" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="str">
+        <f t="shared" si="9"/>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>2021</v>
       </c>
@@ -5886,11 +7088,15 @@
         <v>16.2</v>
       </c>
       <c r="E301" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="str">
+        <f t="shared" si="9"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>2021</v>
       </c>
@@ -5904,11 +7110,15 @@
         <v>16.2</v>
       </c>
       <c r="E302" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="str">
+        <f t="shared" si="9"/>
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>2021</v>
       </c>
@@ -5922,11 +7132,15 @@
         <v>16.2</v>
       </c>
       <c r="E303" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="str">
+        <f t="shared" si="9"/>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>2021</v>
       </c>
@@ -5940,11 +7154,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E304" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" t="str">
+        <f t="shared" si="9"/>
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>2021</v>
       </c>
@@ -5958,11 +7176,15 @@
         <v>4</v>
       </c>
       <c r="E305" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.71</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" t="str">
+        <f t="shared" si="9"/>
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>2021</v>
       </c>
@@ -5976,11 +7198,15 @@
         <v>15.8</v>
       </c>
       <c r="E306" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" t="str">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>2021</v>
       </c>
@@ -5994,11 +7220,15 @@
         <v>4</v>
       </c>
       <c r="E307" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" t="str">
+        <f t="shared" si="9"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>2021</v>
       </c>
@@ -6012,11 +7242,15 @@
         <v>16.2</v>
       </c>
       <c r="E308" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="str">
+        <f t="shared" si="9"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>2021</v>
       </c>
@@ -6030,11 +7264,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E309" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" t="str">
+        <f t="shared" si="9"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>2021</v>
       </c>
@@ -6048,11 +7286,15 @@
         <v>16.5</v>
       </c>
       <c r="E310" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310" t="str">
+        <f t="shared" si="9"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>2021</v>
       </c>
@@ -6066,11 +7308,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E311" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" t="str">
+        <f t="shared" si="9"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>2021</v>
       </c>
@@ -6084,11 +7330,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E312" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" t="str">
+        <f t="shared" si="9"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>2021</v>
       </c>
@@ -6102,11 +7352,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E313" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" t="str">
+        <f t="shared" si="9"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>2021</v>
       </c>
@@ -6120,11 +7374,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E314" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" t="str">
+        <f t="shared" si="9"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>2021</v>
       </c>
@@ -6138,11 +7396,15 @@
         <v>16.2</v>
       </c>
       <c r="E315" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" t="str">
+        <f t="shared" si="9"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>2021</v>
       </c>
@@ -6156,11 +7418,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E316" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316" t="str">
+        <f t="shared" si="9"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>2021</v>
       </c>
@@ -6174,11 +7440,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E317" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317" t="str">
+        <f t="shared" si="9"/>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>2021</v>
       </c>
@@ -6192,11 +7462,15 @@
         <v>16.5</v>
       </c>
       <c r="E318" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318" t="str">
+        <f t="shared" si="9"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>2021</v>
       </c>
@@ -6210,11 +7484,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E319" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319" t="str">
+        <f t="shared" si="9"/>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>2021</v>
       </c>
@@ -6228,11 +7506,15 @@
         <v>16.5</v>
       </c>
       <c r="E320" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320" t="str">
+        <f t="shared" si="9"/>
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>2021</v>
       </c>
@@ -6246,11 +7528,15 @@
         <v>16.5</v>
       </c>
       <c r="E321" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321" t="str">
+        <f t="shared" si="9"/>
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>2021</v>
       </c>
@@ -6264,11 +7550,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322" t="str">
+        <f t="shared" si="9"/>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>2021</v>
       </c>
@@ -6282,11 +7572,15 @@
         <v>16.5</v>
       </c>
       <c r="E323" s="3">
-        <f t="shared" ref="E323:E366" si="5">IF(D323="NaN",AVERAGE(IF(ISTEXT(D322)=TRUE,D324,D322),IF(ISBLANK(D324)=TRUE,D322,D324)),D323)*9/5+32</f>
+        <f t="shared" ref="E323:E366" si="10">IF(D323="NaN",AVERAGE(IF(ISTEXT(D322)=TRUE,D324,D322),IF(ISBLANK(D324)=TRUE,D322,D324)),D323)*9/5+32</f>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323" t="str">
+        <f t="shared" ref="F323:F366" si="11">C323&amp;B323</f>
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>2021</v>
       </c>
@@ -6300,11 +7594,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E324" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324" t="str">
+        <f t="shared" si="11"/>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>2021</v>
       </c>
@@ -6318,11 +7616,15 @@
         <v>16.2</v>
       </c>
       <c r="E325" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325" t="str">
+        <f t="shared" si="11"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>2021</v>
       </c>
@@ -6336,11 +7638,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E326" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326" t="str">
+        <f t="shared" si="11"/>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>2021</v>
       </c>
@@ -6354,11 +7660,15 @@
         <v>16</v>
       </c>
       <c r="E327" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327" t="str">
+        <f t="shared" si="11"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>2021</v>
       </c>
@@ -6372,11 +7682,15 @@
         <v>15.9</v>
       </c>
       <c r="E328" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328" t="str">
+        <f t="shared" si="11"/>
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>2021</v>
       </c>
@@ -6390,11 +7704,15 @@
         <v>15.9</v>
       </c>
       <c r="E329" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329" t="str">
+        <f t="shared" si="11"/>
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>2021</v>
       </c>
@@ -6408,11 +7726,15 @@
         <v>15.9</v>
       </c>
       <c r="E330" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330" t="str">
+        <f t="shared" si="11"/>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>2021</v>
       </c>
@@ -6426,11 +7748,15 @@
         <v>15.9</v>
       </c>
       <c r="E331" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331" t="str">
+        <f t="shared" si="11"/>
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>2021</v>
       </c>
@@ -6444,11 +7770,15 @@
         <v>15.6</v>
       </c>
       <c r="E332" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332" t="str">
+        <f t="shared" si="11"/>
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>2021</v>
       </c>
@@ -6462,11 +7792,15 @@
         <v>15.5</v>
       </c>
       <c r="E333" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333" t="str">
+        <f t="shared" si="11"/>
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>2021</v>
       </c>
@@ -6480,11 +7814,15 @@
         <v>15.5</v>
       </c>
       <c r="E334" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334" t="str">
+        <f t="shared" si="11"/>
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>2021</v>
       </c>
@@ -6498,11 +7836,15 @@
         <v>15.6</v>
       </c>
       <c r="E335" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335" t="str">
+        <f t="shared" si="11"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>2021</v>
       </c>
@@ -6516,11 +7858,15 @@
         <v>15.6</v>
       </c>
       <c r="E336" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336" t="str">
+        <f t="shared" si="11"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>2021</v>
       </c>
@@ -6534,11 +7880,15 @@
         <v>15.6</v>
       </c>
       <c r="E337" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337" t="str">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>2021</v>
       </c>
@@ -6552,11 +7902,15 @@
         <v>15.7</v>
       </c>
       <c r="E338" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338" t="str">
+        <f t="shared" si="11"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>2021</v>
       </c>
@@ -6570,11 +7924,15 @@
         <v>15.7</v>
       </c>
       <c r="E339" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339" t="str">
+        <f t="shared" si="11"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>2021</v>
       </c>
@@ -6588,11 +7946,15 @@
         <v>15.6</v>
       </c>
       <c r="E340" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340" t="str">
+        <f t="shared" si="11"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>2021</v>
       </c>
@@ -6606,11 +7968,15 @@
         <v>15.5</v>
       </c>
       <c r="E341" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" t="str">
+        <f t="shared" si="11"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>2021</v>
       </c>
@@ -6624,11 +7990,15 @@
         <v>15.5</v>
       </c>
       <c r="E342" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342" t="str">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>2021</v>
       </c>
@@ -6642,11 +8012,15 @@
         <v>15.4</v>
       </c>
       <c r="E343" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343" t="str">
+        <f t="shared" si="11"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>2021</v>
       </c>
@@ -6660,11 +8034,15 @@
         <v>15.4</v>
       </c>
       <c r="E344" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344" t="str">
+        <f t="shared" si="11"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>2021</v>
       </c>
@@ -6678,11 +8056,15 @@
         <v>14.5</v>
       </c>
       <c r="E345" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345" t="str">
+        <f t="shared" si="11"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>2021</v>
       </c>
@@ -6696,11 +8078,15 @@
         <v>14.6</v>
       </c>
       <c r="E346" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346" t="str">
+        <f t="shared" si="11"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>2021</v>
       </c>
@@ -6714,11 +8100,15 @@
         <v>14.4</v>
       </c>
       <c r="E347" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.92</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347" t="str">
+        <f t="shared" si="11"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>2021</v>
       </c>
@@ -6732,11 +8122,15 @@
         <v>14.3</v>
       </c>
       <c r="E348" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348" t="str">
+        <f t="shared" si="11"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>2021</v>
       </c>
@@ -6750,11 +8144,15 @@
         <v>13.8</v>
       </c>
       <c r="E349" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349" t="str">
+        <f t="shared" si="11"/>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>2021</v>
       </c>
@@ -6768,11 +8166,15 @@
         <v>13</v>
       </c>
       <c r="E350" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350" t="str">
+        <f t="shared" si="11"/>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>2021</v>
       </c>
@@ -6786,11 +8188,15 @@
         <v>13</v>
       </c>
       <c r="E351" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351" t="str">
+        <f t="shared" si="11"/>
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>2021</v>
       </c>
@@ -6804,11 +8210,15 @@
         <v>13.7</v>
       </c>
       <c r="E352" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352" t="str">
+        <f t="shared" si="11"/>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>2021</v>
       </c>
@@ -6822,11 +8232,15 @@
         <v>13.7</v>
       </c>
       <c r="E353" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353" t="str">
+        <f t="shared" si="11"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>2021</v>
       </c>
@@ -6840,11 +8254,15 @@
         <v>13.9</v>
       </c>
       <c r="E354" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354" t="str">
+        <f t="shared" si="11"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>2021</v>
       </c>
@@ -6858,11 +8276,15 @@
         <v>13.7</v>
       </c>
       <c r="E355" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>2021</v>
       </c>
@@ -6876,11 +8298,15 @@
         <v>13.6</v>
       </c>
       <c r="E356" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356" t="str">
+        <f t="shared" si="11"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>2021</v>
       </c>
@@ -6894,11 +8320,15 @@
         <v>13.5</v>
       </c>
       <c r="E357" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357" t="str">
+        <f t="shared" si="11"/>
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>2021</v>
       </c>
@@ -6912,11 +8342,15 @@
         <v>13.4</v>
       </c>
       <c r="E358" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358" t="str">
+        <f t="shared" si="11"/>
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>2021</v>
       </c>
@@ -6930,11 +8364,15 @@
         <v>13.6</v>
       </c>
       <c r="E359" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359" t="str">
+        <f t="shared" si="11"/>
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>2021</v>
       </c>
@@ -6948,11 +8386,15 @@
         <v>13.2</v>
       </c>
       <c r="E360" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360" t="str">
+        <f t="shared" si="11"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>2021</v>
       </c>
@@ -6966,11 +8408,15 @@
         <v>13.8</v>
       </c>
       <c r="E361" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361" t="str">
+        <f t="shared" si="11"/>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>2021</v>
       </c>
@@ -6984,11 +8430,15 @@
         <v>13.4</v>
       </c>
       <c r="E362" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362" t="str">
+        <f t="shared" si="11"/>
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>2021</v>
       </c>
@@ -7002,11 +8452,15 @@
         <v>13</v>
       </c>
       <c r="E363" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363" t="str">
+        <f t="shared" si="11"/>
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>2021</v>
       </c>
@@ -7020,11 +8474,15 @@
         <v>13.2</v>
       </c>
       <c r="E364" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364" t="str">
+        <f t="shared" si="11"/>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>2021</v>
       </c>
@@ -7038,11 +8496,15 @@
         <v>12.5</v>
       </c>
       <c r="E365" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365" t="str">
+        <f t="shared" si="11"/>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>2021</v>
       </c>
@@ -7056,8 +8518,12 @@
         <v>12.9</v>
       </c>
       <c r="E366" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.22</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="11"/>
+        <v>3112</v>
       </c>
     </row>
   </sheetData>

--- a/Ocean temp.xlsx
+++ b/Ocean temp.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\District system - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E1ACB1-85FD-4D4B-920B-C30523C8CE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D53227-5EED-454F-865D-628FF324CCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8239C3B1-2F72-4CB3-87DA-56EA84E344E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -55,6 +58,9 @@
   <si>
     <t xml:space="preserve">
 Year</t>
+  </si>
+  <si>
+    <t>CombinedDate</t>
   </si>
 </sst>
 </file>
@@ -465,15 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B15C4F-78B6-4B55-A6B4-4611A9AA5557}">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -507,8 +519,12 @@
         <f>IF(D2="NaN",AVERAGE(IF(ISTEXT(D1)=TRUE,D3,D1),IF(ISBLANK(D3)=TRUE,D1,D3)),D2)*9/5+32</f>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>C2&amp;B2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -525,8 +541,12 @@
         <f t="shared" ref="E3:E66" si="0">IF(D3="NaN",AVERAGE(IF(ISTEXT(D2)=TRUE,D4,D2),IF(ISBLANK(D4)=TRUE,D2,D4)),D3)*9/5+32</f>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">C3&amp;B3</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2021</v>
       </c>
@@ -543,8 +563,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
@@ -561,8 +585,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2021</v>
       </c>
@@ -579,8 +607,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2021</v>
       </c>
@@ -597,8 +629,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
@@ -615,8 +651,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
@@ -633,8 +673,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
@@ -651,8 +695,12 @@
         <f t="shared" si="0"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -669,8 +717,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -687,8 +739,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -705,8 +761,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -723,8 +783,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -741,8 +805,12 @@
         <f t="shared" si="0"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -759,8 +827,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
@@ -777,8 +849,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
@@ -795,8 +871,12 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
@@ -813,8 +893,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
@@ -831,8 +915,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
@@ -849,8 +937,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
@@ -867,8 +959,12 @@
         <f t="shared" si="0"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
@@ -885,8 +981,12 @@
         <f t="shared" si="0"/>
         <v>57.56</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
@@ -903,8 +1003,12 @@
         <f t="shared" si="0"/>
         <v>57.379999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
@@ -921,8 +1025,12 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
@@ -939,8 +1047,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
@@ -957,8 +1069,12 @@
         <f t="shared" si="0"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
@@ -975,8 +1091,12 @@
         <f t="shared" si="0"/>
         <v>53.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
@@ -993,8 +1113,12 @@
         <f t="shared" si="0"/>
         <v>53.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1011,8 +1135,12 @@
         <f t="shared" si="0"/>
         <v>53.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
@@ -1029,8 +1157,12 @@
         <f t="shared" si="0"/>
         <v>52.879999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
@@ -1047,8 +1179,12 @@
         <f t="shared" si="0"/>
         <v>52.879999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
@@ -1065,8 +1201,12 @@
         <f t="shared" si="0"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
@@ -1083,8 +1223,12 @@
         <f t="shared" si="0"/>
         <v>53.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
@@ -1101,8 +1245,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
@@ -1119,8 +1267,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
@@ -1137,8 +1289,12 @@
         <f t="shared" si="0"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
@@ -1155,8 +1311,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
@@ -1173,8 +1333,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
@@ -1191,8 +1355,12 @@
         <f t="shared" si="0"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
@@ -1209,8 +1377,12 @@
         <f t="shared" si="0"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
@@ -1227,8 +1399,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
@@ -1245,8 +1421,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
@@ -1263,8 +1443,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
@@ -1281,8 +1465,12 @@
         <f t="shared" si="0"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
@@ -1299,8 +1487,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2021</v>
       </c>
@@ -1317,8 +1509,12 @@
         <f t="shared" si="0"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2021</v>
       </c>
@@ -1335,8 +1531,12 @@
         <f t="shared" si="0"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
@@ -1353,8 +1553,12 @@
         <f t="shared" si="0"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2021</v>
       </c>
@@ -1371,8 +1575,12 @@
         <f t="shared" si="0"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2021</v>
       </c>
@@ -1389,8 +1597,12 @@
         <f t="shared" si="0"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2021</v>
       </c>
@@ -1407,8 +1619,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
@@ -1425,8 +1641,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2021</v>
       </c>
@@ -1443,8 +1663,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2021</v>
       </c>
@@ -1461,8 +1685,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2021</v>
       </c>
@@ -1479,8 +1707,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
@@ -1497,8 +1729,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
@@ -1515,8 +1751,12 @@
         <f t="shared" si="0"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2021</v>
       </c>
@@ -1533,8 +1773,12 @@
         <f t="shared" si="0"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2021</v>
       </c>
@@ -1551,8 +1795,12 @@
         <f t="shared" si="0"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2021</v>
       </c>
@@ -1569,8 +1817,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2021</v>
       </c>
@@ -1587,8 +1839,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2021</v>
       </c>
@@ -1605,8 +1861,12 @@
         <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2021</v>
       </c>
@@ -1623,8 +1883,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2021</v>
       </c>
@@ -1641,8 +1905,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>2021</v>
       </c>
@@ -1659,8 +1927,12 @@
         <f t="shared" si="0"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2021</v>
       </c>
@@ -1674,11 +1946,15 @@
         <v>13.4</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E130" si="1">IF(D67="NaN",AVERAGE(IF(ISTEXT(D66)=TRUE,D68,D66),IF(ISBLANK(D68)=TRUE,D66,D68)),D67)*9/5+32</f>
+        <f t="shared" ref="E67:E130" si="2">IF(D67="NaN",AVERAGE(IF(ISTEXT(D66)=TRUE,D68,D66),IF(ISBLANK(D68)=TRUE,D66,D68)),D67)*9/5+32</f>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">C67&amp;B67</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>2021</v>
       </c>
@@ -1692,11 +1968,15 @@
         <v>14.5</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>2021</v>
       </c>
@@ -1710,11 +1990,15 @@
         <v>14.5</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2021</v>
       </c>
@@ -1728,11 +2012,15 @@
         <v>13.2</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>2021</v>
       </c>
@@ -1746,11 +2034,15 @@
         <v>13.3</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>2021</v>
       </c>
@@ -1764,11 +2056,15 @@
         <v>13.4</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2021</v>
       </c>
@@ -1782,11 +2078,15 @@
         <v>12.6</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2021</v>
       </c>
@@ -1800,11 +2100,15 @@
         <v>12.6</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>2021</v>
       </c>
@@ -1818,11 +2122,15 @@
         <v>12.8</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>2021</v>
       </c>
@@ -1836,11 +2144,15 @@
         <v>12.8</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2021</v>
       </c>
@@ -1854,11 +2166,15 @@
         <v>12.3</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.14</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2021</v>
       </c>
@@ -1872,11 +2188,15 @@
         <v>12.5</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2021</v>
       </c>
@@ -1890,11 +2210,15 @@
         <v>12.5</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>2021</v>
       </c>
@@ -1908,11 +2232,15 @@
         <v>12.4</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>2021</v>
       </c>
@@ -1926,11 +2254,15 @@
         <v>12.6</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>2021</v>
       </c>
@@ -1944,11 +2276,15 @@
         <v>12.8</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.04</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>2021</v>
       </c>
@@ -1962,11 +2298,15 @@
         <v>12.9</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2021</v>
       </c>
@@ -1980,11 +2320,15 @@
         <v>13</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2021</v>
       </c>
@@ -1998,11 +2342,15 @@
         <v>12.5</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>2021</v>
       </c>
@@ -2016,11 +2364,15 @@
         <v>12.4</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.32</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>2021</v>
       </c>
@@ -2034,11 +2386,15 @@
         <v>12.5</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>2021</v>
       </c>
@@ -2052,11 +2408,15 @@
         <v>12.6</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.68</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>2021</v>
       </c>
@@ -2070,11 +2430,15 @@
         <v>13.1</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>2021</v>
       </c>
@@ -2088,11 +2452,15 @@
         <v>13.2</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2021</v>
       </c>
@@ -2106,11 +2474,15 @@
         <v>13.1</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>2021</v>
       </c>
@@ -2124,11 +2496,15 @@
         <v>13.5</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2021</v>
       </c>
@@ -2142,11 +2518,15 @@
         <v>13.5</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2021</v>
       </c>
@@ -2160,11 +2540,15 @@
         <v>13.4</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>2021</v>
       </c>
@@ -2178,11 +2562,15 @@
         <v>13.3</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>2021</v>
       </c>
@@ -2196,11 +2584,15 @@
         <v>13.3</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2021</v>
       </c>
@@ -2214,11 +2606,15 @@
         <v>15.8</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>2021</v>
       </c>
@@ -2232,11 +2628,15 @@
         <v>15.9</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>2021</v>
       </c>
@@ -2250,11 +2650,15 @@
         <v>15.6</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>2021</v>
       </c>
@@ -2268,11 +2672,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>2021</v>
       </c>
@@ -2286,11 +2694,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>2021</v>
       </c>
@@ -2304,11 +2716,15 @@
         <v>15.3</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>2021</v>
       </c>
@@ -2322,11 +2738,15 @@
         <v>15.5</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2021</v>
       </c>
@@ -2340,11 +2760,15 @@
         <v>15.3</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>2021</v>
       </c>
@@ -2358,11 +2782,15 @@
         <v>14.6</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>2021</v>
       </c>
@@ -2376,11 +2804,15 @@
         <v>14.5</v>
       </c>
       <c r="E106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2021</v>
       </c>
@@ -2394,11 +2826,15 @@
         <v>14</v>
       </c>
       <c r="E107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>2021</v>
       </c>
@@ -2412,11 +2848,15 @@
         <v>13.4</v>
       </c>
       <c r="E108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>2021</v>
       </c>
@@ -2430,11 +2870,15 @@
         <v>13.6</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2021</v>
       </c>
@@ -2448,11 +2892,15 @@
         <v>13.8</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>2021</v>
       </c>
@@ -2466,11 +2914,15 @@
         <v>13.9</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>2021</v>
       </c>
@@ -2484,11 +2936,15 @@
         <v>13.8</v>
       </c>
       <c r="E112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2021</v>
       </c>
@@ -2502,11 +2958,15 @@
         <v>15.7</v>
       </c>
       <c r="E113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2021</v>
       </c>
@@ -2520,11 +2980,15 @@
         <v>15.7</v>
       </c>
       <c r="E114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2021</v>
       </c>
@@ -2538,11 +3002,15 @@
         <v>14.7</v>
       </c>
       <c r="E115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.459999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>2021</v>
       </c>
@@ -2556,11 +3024,15 @@
         <v>15</v>
       </c>
       <c r="E116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>2021</v>
       </c>
@@ -2574,11 +3046,15 @@
         <v>14.4</v>
       </c>
       <c r="E117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.92</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>2021</v>
       </c>
@@ -2592,11 +3068,15 @@
         <v>4</v>
       </c>
       <c r="E118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.57</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>2021</v>
       </c>
@@ -2610,11 +3090,15 @@
         <v>12.9</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.22</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>2021</v>
       </c>
@@ -2628,11 +3112,15 @@
         <v>15.2</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.36</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>2021</v>
       </c>
@@ -2646,11 +3134,15 @@
         <v>15.2</v>
       </c>
       <c r="E121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.36</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>2021</v>
       </c>
@@ -2664,11 +3156,15 @@
         <v>15.5</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>2021</v>
       </c>
@@ -2682,11 +3178,15 @@
         <v>16.2</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>2021</v>
       </c>
@@ -2700,11 +3200,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>2021</v>
       </c>
@@ -2718,11 +3222,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>2021</v>
       </c>
@@ -2736,11 +3244,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>2021</v>
       </c>
@@ -2754,11 +3266,15 @@
         <v>15.8</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>2021</v>
       </c>
@@ -2772,11 +3288,15 @@
         <v>15.8</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>2021</v>
       </c>
@@ -2790,11 +3310,15 @@
         <v>15.3</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.540000000000006</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>2021</v>
       </c>
@@ -2808,11 +3332,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>2021</v>
       </c>
@@ -2826,11 +3354,15 @@
         <v>16.2</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" ref="E131:E194" si="2">IF(D131="NaN",AVERAGE(IF(ISTEXT(D130)=TRUE,D132,D130),IF(ISBLANK(D132)=TRUE,D130,D132)),D131)*9/5+32</f>
+        <f t="shared" ref="E131:E194" si="4">IF(D131="NaN",AVERAGE(IF(ISTEXT(D130)=TRUE,D132,D130),IF(ISBLANK(D132)=TRUE,D130,D132)),D131)*9/5+32</f>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F194" si="5">C131&amp;B131</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>2021</v>
       </c>
@@ -2844,11 +3376,15 @@
         <v>16.3</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>2021</v>
       </c>
@@ -2862,11 +3398,15 @@
         <v>16.2</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>2021</v>
       </c>
@@ -2880,11 +3420,15 @@
         <v>16</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>2021</v>
       </c>
@@ -2898,11 +3442,15 @@
         <v>15.8</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>2021</v>
       </c>
@@ -2916,11 +3464,15 @@
         <v>15.9</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>2021</v>
       </c>
@@ -2934,11 +3486,15 @@
         <v>15.9</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>2021</v>
       </c>
@@ -2952,11 +3508,15 @@
         <v>16</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>2021</v>
       </c>
@@ -2970,11 +3530,15 @@
         <v>17.2</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>2021</v>
       </c>
@@ -2988,11 +3552,15 @@
         <v>17.3</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>2021</v>
       </c>
@@ -3006,11 +3574,15 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.12</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>2021</v>
       </c>
@@ -3024,11 +3596,15 @@
         <v>17.5</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>2021</v>
       </c>
@@ -3042,11 +3618,15 @@
         <v>14.6</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>2021</v>
       </c>
@@ -3060,11 +3640,15 @@
         <v>13.7</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>2021</v>
       </c>
@@ -3078,11 +3662,15 @@
         <v>14</v>
       </c>
       <c r="E145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>2021</v>
       </c>
@@ -3096,11 +3684,15 @@
         <v>13.8</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>2021</v>
       </c>
@@ -3114,11 +3706,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>2021</v>
       </c>
@@ -3132,11 +3728,15 @@
         <v>16.7</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>2021</v>
       </c>
@@ -3150,11 +3750,15 @@
         <v>16.3</v>
       </c>
       <c r="E149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>2021</v>
       </c>
@@ -3168,11 +3772,15 @@
         <v>15.9</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>2021</v>
       </c>
@@ -3186,11 +3794,15 @@
         <v>4</v>
       </c>
       <c r="E151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.07</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>2021</v>
       </c>
@@ -3204,11 +3816,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>2021</v>
       </c>
@@ -3222,11 +3838,15 @@
         <v>4</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>2021</v>
       </c>
@@ -3240,11 +3860,15 @@
         <v>4</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>2021</v>
       </c>
@@ -3258,11 +3882,15 @@
         <v>15.4</v>
       </c>
       <c r="E155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>2021</v>
       </c>
@@ -3276,11 +3904,15 @@
         <v>15.9</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>2021</v>
       </c>
@@ -3294,11 +3926,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="str">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>2021</v>
       </c>
@@ -3312,11 +3948,15 @@
         <v>16.3</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="str">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>2021</v>
       </c>
@@ -3330,11 +3970,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="str">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>2021</v>
       </c>
@@ -3348,11 +3992,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="str">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>2021</v>
       </c>
@@ -3366,11 +4014,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="str">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>2021</v>
       </c>
@@ -3384,11 +4036,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="str">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>2021</v>
       </c>
@@ -3402,11 +4058,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="str">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>2021</v>
       </c>
@@ -3420,11 +4080,15 @@
         <v>18.7</v>
       </c>
       <c r="E164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.66</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="str">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>2021</v>
       </c>
@@ -3438,11 +4102,15 @@
         <v>18.8</v>
       </c>
       <c r="E165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.84</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="str">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>2021</v>
       </c>
@@ -3456,11 +4124,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="str">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>2021</v>
       </c>
@@ -3474,11 +4146,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.92</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="str">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>2021</v>
       </c>
@@ -3492,11 +4168,15 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.28</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="str">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>2021</v>
       </c>
@@ -3510,11 +4190,15 @@
         <v>20</v>
       </c>
       <c r="E169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="str">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>2021</v>
       </c>
@@ -3528,11 +4212,15 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68.180000000000007</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>2021</v>
       </c>
@@ -3546,11 +4234,15 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.28</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>2021</v>
       </c>
@@ -3564,11 +4256,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>2021</v>
       </c>
@@ -3582,11 +4278,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>2021</v>
       </c>
@@ -3600,11 +4300,15 @@
         <v>17.2</v>
       </c>
       <c r="E174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>2021</v>
       </c>
@@ -3618,11 +4322,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.78</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f t="shared" si="5"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>2021</v>
       </c>
@@ -3636,11 +4344,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>2021</v>
       </c>
@@ -3654,11 +4366,15 @@
         <v>16.7</v>
       </c>
       <c r="E177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>2021</v>
       </c>
@@ -3672,11 +4388,15 @@
         <v>16.7</v>
       </c>
       <c r="E178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>2021</v>
       </c>
@@ -3690,11 +4410,15 @@
         <v>18.3</v>
       </c>
       <c r="E179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.94</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>2021</v>
       </c>
@@ -3708,11 +4432,15 @@
         <v>19</v>
       </c>
       <c r="E180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>2021</v>
       </c>
@@ -3726,11 +4454,15 @@
         <v>19</v>
       </c>
       <c r="E181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>2021</v>
       </c>
@@ -3744,11 +4476,15 @@
         <v>18.5</v>
       </c>
       <c r="E182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>2021</v>
       </c>
@@ -3762,11 +4498,15 @@
         <v>18.5</v>
       </c>
       <c r="E183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>2021</v>
       </c>
@@ -3780,11 +4520,15 @@
         <v>18.8</v>
       </c>
       <c r="E184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.84</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="str">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>2021</v>
       </c>
@@ -3798,11 +4542,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>2021</v>
       </c>
@@ -3816,11 +4564,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.48</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>2021</v>
       </c>
@@ -3834,11 +4586,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65.48</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>2021</v>
       </c>
@@ -3852,11 +4608,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>2021</v>
       </c>
@@ -3870,11 +4630,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.02</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>2021</v>
       </c>
@@ -3888,11 +4652,15 @@
         <v>19.3</v>
       </c>
       <c r="E190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>2021</v>
       </c>
@@ -3906,11 +4674,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.92</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>2021</v>
       </c>
@@ -3924,11 +4696,15 @@
         <v>19.3</v>
       </c>
       <c r="E192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="str">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>2021</v>
       </c>
@@ -3942,11 +4718,15 @@
         <v>19.3</v>
       </c>
       <c r="E193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.740000000000009</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="str">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>2021</v>
       </c>
@@ -3960,11 +4740,15 @@
         <v>19.2</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.56</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="str">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>2021</v>
       </c>
@@ -3978,11 +4762,15 @@
         <v>4</v>
       </c>
       <c r="E195" s="3">
-        <f t="shared" ref="E195:E258" si="3">IF(D195="NaN",AVERAGE(IF(ISTEXT(D194)=TRUE,D196,D194),IF(ISBLANK(D196)=TRUE,D194,D196)),D195)*9/5+32</f>
+        <f t="shared" ref="E195:E258" si="6">IF(D195="NaN",AVERAGE(IF(ISTEXT(D194)=TRUE,D196,D194),IF(ISBLANK(D196)=TRUE,D194,D196)),D195)*9/5+32</f>
         <v>66.83</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F258" si="7">C195&amp;B195</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>2021</v>
       </c>
@@ -3996,11 +4784,15 @@
         <v>19.5</v>
       </c>
       <c r="E196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="str">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>2021</v>
       </c>
@@ -4014,11 +4806,15 @@
         <v>20</v>
       </c>
       <c r="E197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="str">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>2021</v>
       </c>
@@ -4032,11 +4828,15 @@
         <v>19.2</v>
       </c>
       <c r="E198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66.56</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="str">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>2021</v>
       </c>
@@ -4050,11 +4850,15 @@
         <v>17.8</v>
       </c>
       <c r="E199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="str">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>2021</v>
       </c>
@@ -4068,11 +4872,15 @@
         <v>17.8</v>
       </c>
       <c r="E200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="str">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>2021</v>
       </c>
@@ -4086,11 +4894,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="str">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>2021</v>
       </c>
@@ -4104,11 +4916,15 @@
         <v>18</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="str">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>2021</v>
       </c>
@@ -4122,11 +4938,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="str">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>2021</v>
       </c>
@@ -4140,11 +4960,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="str">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>2021</v>
       </c>
@@ -4158,11 +4982,15 @@
         <v>18</v>
       </c>
       <c r="E205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="str">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>2021</v>
       </c>
@@ -4176,11 +5004,15 @@
         <v>18</v>
       </c>
       <c r="E206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="str">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>2021</v>
       </c>
@@ -4194,11 +5026,15 @@
         <v>16.8</v>
       </c>
       <c r="E207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.24</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="str">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>2021</v>
       </c>
@@ -4212,11 +5048,15 @@
         <v>16.7</v>
       </c>
       <c r="E208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f t="shared" si="7"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>2021</v>
       </c>
@@ -4230,11 +5070,15 @@
         <v>17.5</v>
       </c>
       <c r="E209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>2021</v>
       </c>
@@ -4248,11 +5092,15 @@
         <v>17.5</v>
       </c>
       <c r="E210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>2021</v>
       </c>
@@ -4266,11 +5114,15 @@
         <v>17.5</v>
       </c>
       <c r="E211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f t="shared" si="7"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>2021</v>
       </c>
@@ -4284,11 +5136,15 @@
         <v>4</v>
       </c>
       <c r="E212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="str">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>2021</v>
       </c>
@@ -4302,11 +5158,15 @@
         <v>4</v>
       </c>
       <c r="E213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="str">
+        <f t="shared" si="7"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>2021</v>
       </c>
@@ -4320,11 +5180,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="str">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>2021</v>
       </c>
@@ -4338,11 +5202,15 @@
         <v>17.8</v>
       </c>
       <c r="E215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="str">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>2021</v>
       </c>
@@ -4356,11 +5224,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E216" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="str">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>2021</v>
       </c>
@@ -4374,11 +5246,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E217" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="str">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>2021</v>
       </c>
@@ -4392,11 +5268,15 @@
         <v>17.3</v>
       </c>
       <c r="E218" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="str">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>2021</v>
       </c>
@@ -4410,11 +5290,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E219" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="str">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>2021</v>
       </c>
@@ -4428,11 +5312,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E220" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="str">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>2021</v>
       </c>
@@ -4446,11 +5334,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E221" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="str">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>2021</v>
       </c>
@@ -4464,11 +5356,15 @@
         <v>17.2</v>
       </c>
       <c r="E222" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="str">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>2021</v>
       </c>
@@ -4482,11 +5378,15 @@
         <v>17.2</v>
       </c>
       <c r="E223" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="str">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>2021</v>
       </c>
@@ -4500,11 +5400,15 @@
         <v>17.3</v>
       </c>
       <c r="E224" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="str">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>2021</v>
       </c>
@@ -4518,11 +5422,15 @@
         <v>17.2</v>
       </c>
       <c r="E225" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="str">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>2021</v>
       </c>
@@ -4536,11 +5444,15 @@
         <v>17.3</v>
       </c>
       <c r="E226" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="str">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>2021</v>
       </c>
@@ -4554,11 +5466,15 @@
         <v>17.3</v>
       </c>
       <c r="E227" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="str">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>2021</v>
       </c>
@@ -4572,11 +5488,15 @@
         <v>17.3</v>
       </c>
       <c r="E228" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="str">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>2021</v>
       </c>
@@ -4590,11 +5510,15 @@
         <v>18</v>
       </c>
       <c r="E229" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="str">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>2021</v>
       </c>
@@ -4608,11 +5532,15 @@
         <v>18</v>
       </c>
       <c r="E230" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="str">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>2021</v>
       </c>
@@ -4626,11 +5554,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E231" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.58</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="str">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>2021</v>
       </c>
@@ -4644,11 +5576,15 @@
         <v>18</v>
       </c>
       <c r="E232" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="str">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>2021</v>
       </c>
@@ -4662,11 +5598,15 @@
         <v>18</v>
       </c>
       <c r="E233" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="str">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>2021</v>
       </c>
@@ -4680,11 +5620,15 @@
         <v>18</v>
       </c>
       <c r="E234" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="str">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>2021</v>
       </c>
@@ -4698,11 +5642,15 @@
         <v>18</v>
       </c>
       <c r="E235" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="str">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>2021</v>
       </c>
@@ -4716,11 +5664,15 @@
         <v>18</v>
       </c>
       <c r="E236" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="str">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>2021</v>
       </c>
@@ -4734,11 +5686,15 @@
         <v>18</v>
       </c>
       <c r="E237" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="str">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>2021</v>
       </c>
@@ -4752,11 +5708,15 @@
         <v>17.3</v>
       </c>
       <c r="E238" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="str">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>2021</v>
       </c>
@@ -4770,11 +5730,15 @@
         <v>17.3</v>
       </c>
       <c r="E239" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="str">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>2021</v>
       </c>
@@ -4788,11 +5752,15 @@
         <v>17.3</v>
       </c>
       <c r="E240" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="str">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>2021</v>
       </c>
@@ -4806,11 +5774,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E241" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="str">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>2021</v>
       </c>
@@ -4824,11 +5796,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E242" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="str">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>2021</v>
       </c>
@@ -4842,11 +5818,15 @@
         <v>16.3</v>
       </c>
       <c r="E243" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="str">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>2021</v>
       </c>
@@ -4860,11 +5840,15 @@
         <v>16.2</v>
       </c>
       <c r="E244" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="str">
+        <f t="shared" si="7"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>2021</v>
       </c>
@@ -4878,11 +5862,15 @@
         <v>17.5</v>
       </c>
       <c r="E245" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="str">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>2021</v>
       </c>
@@ -4896,11 +5884,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E246" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="str">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>2021</v>
       </c>
@@ -4914,11 +5906,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E247" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="str">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>2021</v>
       </c>
@@ -4932,11 +5928,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E248" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="str">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>2021</v>
       </c>
@@ -4950,11 +5950,15 @@
         <v>16.8</v>
       </c>
       <c r="E249" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.24</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="str">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>2021</v>
       </c>
@@ -4968,11 +5972,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E250" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.78</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="str">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>2021</v>
       </c>
@@ -4986,11 +5994,15 @@
         <v>18.2</v>
       </c>
       <c r="E251" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.759999999999991</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="str">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>2021</v>
       </c>
@@ -5004,11 +6016,15 @@
         <v>17.7</v>
       </c>
       <c r="E252" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="str">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>2021</v>
       </c>
@@ -5022,11 +6038,15 @@
         <v>17.5</v>
       </c>
       <c r="E253" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="str">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>2021</v>
       </c>
@@ -5040,11 +6060,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E254" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="str">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>2021</v>
       </c>
@@ -5058,11 +6082,15 @@
         <v>17.8</v>
       </c>
       <c r="E255" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="str">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>2021</v>
       </c>
@@ -5076,11 +6104,15 @@
         <v>17.7</v>
       </c>
       <c r="E256" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="str">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>2021</v>
       </c>
@@ -5094,11 +6126,15 @@
         <v>17.2</v>
       </c>
       <c r="E257" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="str">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>2021</v>
       </c>
@@ -5112,11 +6148,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="str">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>2021</v>
       </c>
@@ -5130,11 +6170,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E259" s="3">
-        <f t="shared" ref="E259:E322" si="4">IF(D259="NaN",AVERAGE(IF(ISTEXT(D258)=TRUE,D260,D258),IF(ISBLANK(D260)=TRUE,D258,D260)),D259)*9/5+32</f>
+        <f t="shared" ref="E259:E322" si="8">IF(D259="NaN",AVERAGE(IF(ISTEXT(D258)=TRUE,D260,D258),IF(ISBLANK(D260)=TRUE,D258,D260)),D259)*9/5+32</f>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="str">
+        <f t="shared" ref="F259:F322" si="9">C259&amp;B259</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>2021</v>
       </c>
@@ -5148,11 +6192,15 @@
         <v>15.7</v>
       </c>
       <c r="E260" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="str">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>2021</v>
       </c>
@@ -5166,11 +6214,15 @@
         <v>15.5</v>
       </c>
       <c r="E261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="str">
+        <f t="shared" si="9"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>2021</v>
       </c>
@@ -5184,11 +6236,15 @@
         <v>15.6</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="str">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>2021</v>
       </c>
@@ -5202,11 +6258,15 @@
         <v>15.5</v>
       </c>
       <c r="E263" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="str">
+        <f t="shared" si="9"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>2021</v>
       </c>
@@ -5220,11 +6280,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E264" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="str">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>2021</v>
       </c>
@@ -5238,11 +6302,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E265" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="str">
+        <f t="shared" si="9"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>2021</v>
       </c>
@@ -5256,11 +6324,15 @@
         <v>17.5</v>
       </c>
       <c r="E266" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="str">
+        <f t="shared" si="9"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>2021</v>
       </c>
@@ -5274,11 +6346,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E267" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="str">
+        <f t="shared" si="9"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>2021</v>
       </c>
@@ -5292,11 +6368,15 @@
         <v>17.3</v>
       </c>
       <c r="E268" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="str">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>2021</v>
       </c>
@@ -5310,11 +6390,15 @@
         <v>17.2</v>
       </c>
       <c r="E269" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="str">
+        <f t="shared" si="9"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>2021</v>
       </c>
@@ -5328,11 +6412,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E270" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="str">
+        <f t="shared" si="9"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>2021</v>
       </c>
@@ -5346,11 +6434,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E271" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="str">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>2021</v>
       </c>
@@ -5364,11 +6456,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E272" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="str">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>2021</v>
       </c>
@@ -5382,11 +6478,15 @@
         <v>4</v>
       </c>
       <c r="E273" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.07</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="str">
+        <f t="shared" si="9"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>2021</v>
       </c>
@@ -5400,11 +6500,15 @@
         <v>16.2</v>
       </c>
       <c r="E274" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="str">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>2021</v>
       </c>
@@ -5418,11 +6522,15 @@
         <v>17.3</v>
       </c>
       <c r="E275" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.14</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="str">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>2021</v>
       </c>
@@ -5436,11 +6544,15 @@
         <v>17.5</v>
       </c>
       <c r="E276" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="str">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>2021</v>
       </c>
@@ -5454,11 +6566,15 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E277" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.22</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="str">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>2021</v>
       </c>
@@ -5472,11 +6588,15 @@
         <v>18</v>
       </c>
       <c r="E278" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="str">
+        <f t="shared" si="9"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>2021</v>
       </c>
@@ -5490,11 +6610,15 @@
         <v>18.3</v>
       </c>
       <c r="E279" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.94</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="str">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>2021</v>
       </c>
@@ -5508,11 +6632,15 @@
         <v>17.8</v>
       </c>
       <c r="E280" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>64.040000000000006</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="str">
+        <f t="shared" si="9"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>2021</v>
       </c>
@@ -5526,11 +6654,15 @@
         <v>17.7</v>
       </c>
       <c r="E281" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.86</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="str">
+        <f t="shared" si="9"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>2021</v>
       </c>
@@ -5544,11 +6676,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E282" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="str">
+        <f t="shared" si="9"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>2021</v>
       </c>
@@ -5562,11 +6698,15 @@
         <v>17.2</v>
       </c>
       <c r="E283" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.959999999999994</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="str">
+        <f t="shared" si="9"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>2021</v>
       </c>
@@ -5580,11 +6720,15 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E284" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.32</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>2021</v>
       </c>
@@ -5598,11 +6742,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E285" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63.68</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="str">
+        <f t="shared" si="9"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>2021</v>
       </c>
@@ -5616,11 +6764,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E286" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.42</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="str">
+        <f t="shared" si="9"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>2021</v>
       </c>
@@ -5634,11 +6786,15 @@
         <v>14.6</v>
       </c>
       <c r="E287" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="str">
+        <f t="shared" si="9"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>2021</v>
       </c>
@@ -5652,11 +6808,15 @@
         <v>14.5</v>
       </c>
       <c r="E288" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="str">
+        <f t="shared" si="9"/>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>2021</v>
       </c>
@@ -5670,11 +6830,15 @@
         <v>14.7</v>
       </c>
       <c r="E289" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>58.459999999999994</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="str">
+        <f t="shared" si="9"/>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>2021</v>
       </c>
@@ -5688,11 +6852,15 @@
         <v>15.1</v>
       </c>
       <c r="E290" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.18</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="str">
+        <f t="shared" si="9"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>2021</v>
       </c>
@@ -5706,11 +6874,15 @@
         <v>15.1</v>
       </c>
       <c r="E291" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.18</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="str">
+        <f t="shared" si="9"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>2021</v>
       </c>
@@ -5724,11 +6896,15 @@
         <v>15.7</v>
       </c>
       <c r="E292" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="str">
+        <f t="shared" si="9"/>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>2021</v>
       </c>
@@ -5742,11 +6918,15 @@
         <v>15.6</v>
       </c>
       <c r="E293" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="str">
+        <f t="shared" si="9"/>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>2021</v>
       </c>
@@ -5760,11 +6940,15 @@
         <v>15.6</v>
       </c>
       <c r="E294" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="str">
+        <f t="shared" si="9"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>2021</v>
       </c>
@@ -5778,11 +6962,15 @@
         <v>15.7</v>
       </c>
       <c r="E295" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="str">
+        <f t="shared" si="9"/>
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>2021</v>
       </c>
@@ -5796,11 +6984,15 @@
         <v>16</v>
       </c>
       <c r="E296" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="str">
+        <f t="shared" si="9"/>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>2021</v>
       </c>
@@ -5814,11 +7006,15 @@
         <v>16.3</v>
       </c>
       <c r="E297" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.34</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="str">
+        <f t="shared" si="9"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>2021</v>
       </c>
@@ -5832,11 +7028,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E298" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="str">
+        <f t="shared" si="9"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>2021</v>
       </c>
@@ -5850,11 +7050,15 @@
         <v>16.7</v>
       </c>
       <c r="E299" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62.059999999999995</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="str">
+        <f t="shared" si="9"/>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>2021</v>
       </c>
@@ -5868,11 +7072,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E300" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="str">
+        <f t="shared" si="9"/>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>2021</v>
       </c>
@@ -5886,11 +7094,15 @@
         <v>16.2</v>
       </c>
       <c r="E301" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="str">
+        <f t="shared" si="9"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>2021</v>
       </c>
@@ -5904,11 +7116,15 @@
         <v>16.2</v>
       </c>
       <c r="E302" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="str">
+        <f t="shared" si="9"/>
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>2021</v>
       </c>
@@ -5922,11 +7138,15 @@
         <v>16.2</v>
       </c>
       <c r="E303" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="str">
+        <f t="shared" si="9"/>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>2021</v>
       </c>
@@ -5940,11 +7160,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E304" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" t="str">
+        <f t="shared" si="9"/>
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>2021</v>
       </c>
@@ -5958,11 +7182,15 @@
         <v>4</v>
       </c>
       <c r="E305" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.71</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" t="str">
+        <f t="shared" si="9"/>
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>2021</v>
       </c>
@@ -5976,11 +7204,15 @@
         <v>15.8</v>
       </c>
       <c r="E306" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.440000000000005</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" t="str">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>2021</v>
       </c>
@@ -5994,11 +7226,15 @@
         <v>4</v>
       </c>
       <c r="E307" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" t="str">
+        <f t="shared" si="9"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>2021</v>
       </c>
@@ -6012,11 +7248,15 @@
         <v>16.2</v>
       </c>
       <c r="E308" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="str">
+        <f t="shared" si="9"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>2021</v>
       </c>
@@ -6030,11 +7270,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E309" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" t="str">
+        <f t="shared" si="9"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>2021</v>
       </c>
@@ -6048,11 +7292,15 @@
         <v>16.5</v>
       </c>
       <c r="E310" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310" t="str">
+        <f t="shared" si="9"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>2021</v>
       </c>
@@ -6066,11 +7314,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E311" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" t="str">
+        <f t="shared" si="9"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>2021</v>
       </c>
@@ -6084,11 +7336,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E312" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" t="str">
+        <f t="shared" si="9"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>2021</v>
       </c>
@@ -6102,11 +7358,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E313" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" t="str">
+        <f t="shared" si="9"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>2021</v>
       </c>
@@ -6120,11 +7380,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E314" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" t="str">
+        <f t="shared" si="9"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>2021</v>
       </c>
@@ -6138,11 +7402,15 @@
         <v>16.2</v>
       </c>
       <c r="E315" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" t="str">
+        <f t="shared" si="9"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>2021</v>
       </c>
@@ -6156,11 +7424,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E316" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316" t="str">
+        <f t="shared" si="9"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>2021</v>
       </c>
@@ -6174,11 +7446,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E317" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317" t="str">
+        <f t="shared" si="9"/>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>2021</v>
       </c>
@@ -6192,11 +7468,15 @@
         <v>16.5</v>
       </c>
       <c r="E318" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318" t="str">
+        <f t="shared" si="9"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>2021</v>
       </c>
@@ -6210,11 +7490,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E319" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319" t="str">
+        <f t="shared" si="9"/>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>2021</v>
       </c>
@@ -6228,11 +7512,15 @@
         <v>16.5</v>
       </c>
       <c r="E320" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320" t="str">
+        <f t="shared" si="9"/>
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>2021</v>
       </c>
@@ -6246,11 +7534,15 @@
         <v>16.5</v>
       </c>
       <c r="E321" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321" t="str">
+        <f t="shared" si="9"/>
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>2021</v>
       </c>
@@ -6264,11 +7556,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61.88</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322" t="str">
+        <f t="shared" si="9"/>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>2021</v>
       </c>
@@ -6282,11 +7578,15 @@
         <v>16.5</v>
       </c>
       <c r="E323" s="3">
-        <f t="shared" ref="E323:E366" si="5">IF(D323="NaN",AVERAGE(IF(ISTEXT(D322)=TRUE,D324,D322),IF(ISBLANK(D324)=TRUE,D322,D324)),D323)*9/5+32</f>
+        <f t="shared" ref="E323:E366" si="10">IF(D323="NaN",AVERAGE(IF(ISTEXT(D322)=TRUE,D324,D322),IF(ISBLANK(D324)=TRUE,D322,D324)),D323)*9/5+32</f>
         <v>61.7</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323" t="str">
+        <f t="shared" ref="F323:F366" si="11">C323&amp;B323</f>
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>2021</v>
       </c>
@@ -6300,11 +7600,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E324" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>61.519999999999996</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324" t="str">
+        <f t="shared" si="11"/>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>2021</v>
       </c>
@@ -6318,11 +7622,15 @@
         <v>16.2</v>
       </c>
       <c r="E325" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>61.16</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325" t="str">
+        <f t="shared" si="11"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>2021</v>
       </c>
@@ -6336,11 +7644,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E326" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.980000000000004</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326" t="str">
+        <f t="shared" si="11"/>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>2021</v>
       </c>
@@ -6354,11 +7666,15 @@
         <v>16</v>
       </c>
       <c r="E327" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327" t="str">
+        <f t="shared" si="11"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>2021</v>
       </c>
@@ -6372,11 +7688,15 @@
         <v>15.9</v>
       </c>
       <c r="E328" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328" t="str">
+        <f t="shared" si="11"/>
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>2021</v>
       </c>
@@ -6390,11 +7710,15 @@
         <v>15.9</v>
       </c>
       <c r="E329" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329" t="str">
+        <f t="shared" si="11"/>
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>2021</v>
       </c>
@@ -6408,11 +7732,15 @@
         <v>15.9</v>
       </c>
       <c r="E330" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330" t="str">
+        <f t="shared" si="11"/>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>2021</v>
       </c>
@@ -6426,11 +7754,15 @@
         <v>15.9</v>
       </c>
       <c r="E331" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.62</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331" t="str">
+        <f t="shared" si="11"/>
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>2021</v>
       </c>
@@ -6444,11 +7776,15 @@
         <v>15.6</v>
       </c>
       <c r="E332" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332" t="str">
+        <f t="shared" si="11"/>
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>2021</v>
       </c>
@@ -6462,11 +7798,15 @@
         <v>15.5</v>
       </c>
       <c r="E333" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333" t="str">
+        <f t="shared" si="11"/>
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>2021</v>
       </c>
@@ -6480,11 +7820,15 @@
         <v>15.5</v>
       </c>
       <c r="E334" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334" t="str">
+        <f t="shared" si="11"/>
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>2021</v>
       </c>
@@ -6498,11 +7842,15 @@
         <v>15.6</v>
       </c>
       <c r="E335" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335" t="str">
+        <f t="shared" si="11"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>2021</v>
       </c>
@@ -6516,11 +7864,15 @@
         <v>15.6</v>
       </c>
       <c r="E336" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336" t="str">
+        <f t="shared" si="11"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>2021</v>
       </c>
@@ -6534,11 +7886,15 @@
         <v>15.6</v>
       </c>
       <c r="E337" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337" t="str">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>2021</v>
       </c>
@@ -6552,11 +7908,15 @@
         <v>15.7</v>
       </c>
       <c r="E338" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338" t="str">
+        <f t="shared" si="11"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>2021</v>
       </c>
@@ -6570,11 +7930,15 @@
         <v>15.7</v>
       </c>
       <c r="E339" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.26</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339" t="str">
+        <f t="shared" si="11"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>2021</v>
       </c>
@@ -6588,11 +7952,15 @@
         <v>15.6</v>
       </c>
       <c r="E340" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60.08</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340" t="str">
+        <f t="shared" si="11"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>2021</v>
       </c>
@@ -6606,11 +7974,15 @@
         <v>15.5</v>
       </c>
       <c r="E341" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" t="str">
+        <f t="shared" si="11"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>2021</v>
       </c>
@@ -6624,11 +7996,15 @@
         <v>15.5</v>
       </c>
       <c r="E342" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342" t="str">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>2021</v>
       </c>
@@ -6642,11 +8018,15 @@
         <v>15.4</v>
       </c>
       <c r="E343" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343" t="str">
+        <f t="shared" si="11"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>2021</v>
       </c>
@@ -6660,11 +8040,15 @@
         <v>15.4</v>
       </c>
       <c r="E344" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>59.72</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344" t="str">
+        <f t="shared" si="11"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>2021</v>
       </c>
@@ -6678,11 +8062,15 @@
         <v>14.5</v>
       </c>
       <c r="E345" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345" t="str">
+        <f t="shared" si="11"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>2021</v>
       </c>
@@ -6696,11 +8084,15 @@
         <v>14.6</v>
       </c>
       <c r="E346" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>58.28</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346" t="str">
+        <f t="shared" si="11"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>2021</v>
       </c>
@@ -6714,11 +8106,15 @@
         <v>14.4</v>
       </c>
       <c r="E347" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.92</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347" t="str">
+        <f t="shared" si="11"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>2021</v>
       </c>
@@ -6732,11 +8128,15 @@
         <v>14.3</v>
       </c>
       <c r="E348" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.74</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348" t="str">
+        <f t="shared" si="11"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>2021</v>
       </c>
@@ -6750,11 +8150,15 @@
         <v>13.8</v>
       </c>
       <c r="E349" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349" t="str">
+        <f t="shared" si="11"/>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>2021</v>
       </c>
@@ -6768,11 +8172,15 @@
         <v>13</v>
       </c>
       <c r="E350" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350" t="str">
+        <f t="shared" si="11"/>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>2021</v>
       </c>
@@ -6786,11 +8194,15 @@
         <v>13</v>
       </c>
       <c r="E351" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351" t="str">
+        <f t="shared" si="11"/>
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>2021</v>
       </c>
@@ -6804,11 +8216,15 @@
         <v>13.7</v>
       </c>
       <c r="E352" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352" t="str">
+        <f t="shared" si="11"/>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>2021</v>
       </c>
@@ -6822,11 +8238,15 @@
         <v>13.7</v>
       </c>
       <c r="E353" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353" t="str">
+        <f t="shared" si="11"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>2021</v>
       </c>
@@ -6840,11 +8260,15 @@
         <v>13.9</v>
       </c>
       <c r="E354" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.02</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354" t="str">
+        <f t="shared" si="11"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>2021</v>
       </c>
@@ -6858,11 +8282,15 @@
         <v>13.7</v>
       </c>
       <c r="E355" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.66</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355" t="str">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>2021</v>
       </c>
@@ -6876,11 +8304,15 @@
         <v>13.6</v>
       </c>
       <c r="E356" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356" t="str">
+        <f t="shared" si="11"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>2021</v>
       </c>
@@ -6894,11 +8326,15 @@
         <v>13.5</v>
       </c>
       <c r="E357" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357" t="str">
+        <f t="shared" si="11"/>
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>2021</v>
       </c>
@@ -6912,11 +8348,15 @@
         <v>13.4</v>
       </c>
       <c r="E358" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358" t="str">
+        <f t="shared" si="11"/>
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>2021</v>
       </c>
@@ -6930,11 +8370,15 @@
         <v>13.6</v>
       </c>
       <c r="E359" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359" t="str">
+        <f t="shared" si="11"/>
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>2021</v>
       </c>
@@ -6948,11 +8392,15 @@
         <v>13.2</v>
       </c>
       <c r="E360" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360" t="str">
+        <f t="shared" si="11"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>2021</v>
       </c>
@@ -6966,11 +8414,15 @@
         <v>13.8</v>
       </c>
       <c r="E361" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.84</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361" t="str">
+        <f t="shared" si="11"/>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>2021</v>
       </c>
@@ -6984,11 +8436,15 @@
         <v>13.4</v>
       </c>
       <c r="E362" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56.120000000000005</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362" t="str">
+        <f t="shared" si="11"/>
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>2021</v>
       </c>
@@ -7002,11 +8458,15 @@
         <v>13</v>
       </c>
       <c r="E363" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.4</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363" t="str">
+        <f t="shared" si="11"/>
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>2021</v>
       </c>
@@ -7020,11 +8480,15 @@
         <v>13.2</v>
       </c>
       <c r="E364" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.76</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364" t="str">
+        <f t="shared" si="11"/>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>2021</v>
       </c>
@@ -7038,11 +8502,15 @@
         <v>12.5</v>
       </c>
       <c r="E365" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365" t="str">
+        <f t="shared" si="11"/>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>2021</v>
       </c>
@@ -7056,11 +8524,16 @@
         <v>12.9</v>
       </c>
       <c r="E366" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55.22</v>
       </c>
+      <c r="F366" t="str">
+        <f t="shared" si="11"/>
+        <v>3112</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{C6B15C4F-78B6-4B55-A6B4-4611A9AA5557}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>